--- a/recebido_incorporador/5.Quadros NBR.AYA.CARLOS.CARVALHO.RD.25.10.2024_formatação 8 casas decimais.xlsx
+++ b/recebido_incorporador/5.Quadros NBR.AYA.CARLOS.CARVALHO.RD.25.10.2024_formatação 8 casas decimais.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0617DB73-E4BB-4E28-960C-96F9595C9928}"/>
   <bookViews>
-    <workbookView xWindow="29055" yWindow="0" windowWidth="29010" windowHeight="14940" tabRatio="799" firstSheet="2" activeTab="3" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
+    <workbookView xWindow="29055" yWindow="0" windowWidth="29010" windowHeight="14940" tabRatio="799" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
   </bookViews>
   <sheets>
     <sheet name="Informações Preliminares" sheetId="11" r:id="rId1"/>
@@ -7142,6 +7142,33 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7166,33 +7193,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7202,12 +7202,27 @@
     <xf numFmtId="166" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" textRotation="180"/>
     </xf>
@@ -7217,15 +7232,6 @@
     <xf numFmtId="166" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" textRotation="180"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7256,12 +7262,6 @@
     <xf numFmtId="166" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -7292,6 +7292,18 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7301,18 +7313,6 @@
     <xf numFmtId="166" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7358,6 +7358,33 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
@@ -7367,62 +7394,65 @@
     <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="43" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7432,56 +7462,44 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="119" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="72" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="73" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="115" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="51" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="69" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="139" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="49" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7504,15 +7522,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="115" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7534,35 +7543,100 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="119" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="72" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="73" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="115" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="51" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="69" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="139" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7580,18 +7654,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -7604,71 +7666,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8014,8 +8014,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -9005,21 +9005,21 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1000" t="s">
+      <c r="A6" s="978" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="1001"/>
-      <c r="C6" s="1001"/>
-      <c r="D6" s="1001"/>
-      <c r="E6" s="1002"/>
-      <c r="F6" s="835" t="s">
+      <c r="B6" s="979"/>
+      <c r="C6" s="979"/>
+      <c r="D6" s="979"/>
+      <c r="E6" s="980"/>
+      <c r="F6" s="844" t="s">
         <v>273</v>
       </c>
-      <c r="G6" s="836"/>
-      <c r="H6" s="836"/>
-      <c r="I6" s="836"/>
-      <c r="J6" s="836"/>
-      <c r="K6" s="837"/>
+      <c r="G6" s="845"/>
+      <c r="H6" s="845"/>
+      <c r="I6" s="845"/>
+      <c r="J6" s="845"/>
+      <c r="K6" s="846"/>
       <c r="L6" s="208"/>
       <c r="M6" s="9"/>
     </row>
@@ -9087,42 +9087,42 @@
       <c r="K9" s="366"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1003" t="s">
+      <c r="A10" s="981" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="998"/>
-      <c r="C10" s="997" t="s">
+      <c r="B10" s="976"/>
+      <c r="C10" s="975" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="999"/>
-      <c r="E10" s="998"/>
-      <c r="F10" s="997" t="s">
+      <c r="D10" s="977"/>
+      <c r="E10" s="976"/>
+      <c r="F10" s="975" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="999"/>
-      <c r="H10" s="998"/>
-      <c r="I10" s="997" t="s">
+      <c r="G10" s="977"/>
+      <c r="H10" s="976"/>
+      <c r="I10" s="975" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="998"/>
+      <c r="J10" s="976"/>
       <c r="K10" s="379" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="950" t="s">
+      <c r="A11" s="956" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="951"/>
-      <c r="C11" s="951"/>
-      <c r="D11" s="951"/>
-      <c r="E11" s="951"/>
-      <c r="F11" s="951"/>
-      <c r="G11" s="951"/>
-      <c r="H11" s="951"/>
-      <c r="I11" s="951"/>
-      <c r="J11" s="951"/>
-      <c r="K11" s="952"/>
+      <c r="B11" s="957"/>
+      <c r="C11" s="957"/>
+      <c r="D11" s="957"/>
+      <c r="E11" s="957"/>
+      <c r="F11" s="957"/>
+      <c r="G11" s="957"/>
+      <c r="H11" s="957"/>
+      <c r="I11" s="957"/>
+      <c r="J11" s="957"/>
+      <c r="K11" s="958"/>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="94" t="s">
@@ -9134,11 +9134,11 @@
       </c>
       <c r="D12" s="690"/>
       <c r="E12" s="691"/>
-      <c r="F12" s="982" t="s">
+      <c r="F12" s="1000" t="s">
         <v>463</v>
       </c>
-      <c r="G12" s="983"/>
-      <c r="H12" s="984"/>
+      <c r="G12" s="1001"/>
+      <c r="H12" s="1002"/>
       <c r="I12" s="692" t="s">
         <v>464</v>
       </c>
@@ -9155,11 +9155,11 @@
       </c>
       <c r="D13" s="695"/>
       <c r="E13" s="696"/>
-      <c r="F13" s="979" t="s">
+      <c r="F13" s="982" t="s">
         <v>480</v>
       </c>
-      <c r="G13" s="980"/>
-      <c r="H13" s="981"/>
+      <c r="G13" s="984"/>
+      <c r="H13" s="983"/>
       <c r="I13" s="697" t="s">
         <v>464</v>
       </c>
@@ -9176,11 +9176,11 @@
       </c>
       <c r="D14" s="695"/>
       <c r="E14" s="696"/>
-      <c r="F14" s="991" t="s">
+      <c r="F14" s="985" t="s">
         <v>463</v>
       </c>
-      <c r="G14" s="992"/>
-      <c r="H14" s="993"/>
+      <c r="G14" s="986"/>
+      <c r="H14" s="987"/>
       <c r="I14" s="699" t="s">
         <v>464</v>
       </c>
@@ -9188,39 +9188,39 @@
       <c r="K14" s="698"/>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="950" t="s">
+      <c r="A15" s="956" t="s">
         <v>327</v>
       </c>
-      <c r="B15" s="951"/>
-      <c r="C15" s="951"/>
-      <c r="D15" s="951"/>
-      <c r="E15" s="951"/>
-      <c r="F15" s="951"/>
-      <c r="G15" s="951"/>
-      <c r="H15" s="951"/>
-      <c r="I15" s="951"/>
-      <c r="J15" s="951"/>
-      <c r="K15" s="952"/>
+      <c r="B15" s="957"/>
+      <c r="C15" s="957"/>
+      <c r="D15" s="957"/>
+      <c r="E15" s="957"/>
+      <c r="F15" s="957"/>
+      <c r="G15" s="957"/>
+      <c r="H15" s="957"/>
+      <c r="I15" s="957"/>
+      <c r="J15" s="957"/>
+      <c r="K15" s="958"/>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="94" t="s">
         <v>484</v>
       </c>
       <c r="B16" s="678"/>
-      <c r="C16" s="988" t="s">
+      <c r="C16" s="990" t="s">
         <v>471</v>
       </c>
-      <c r="D16" s="989"/>
-      <c r="E16" s="990"/>
-      <c r="F16" s="988" t="s">
+      <c r="D16" s="991"/>
+      <c r="E16" s="992"/>
+      <c r="F16" s="990" t="s">
         <v>471</v>
       </c>
-      <c r="G16" s="989"/>
-      <c r="H16" s="990"/>
-      <c r="I16" s="988" t="s">
+      <c r="G16" s="991"/>
+      <c r="H16" s="992"/>
+      <c r="I16" s="990" t="s">
         <v>483</v>
       </c>
-      <c r="J16" s="990"/>
+      <c r="J16" s="992"/>
       <c r="K16" s="701"/>
     </row>
     <row r="17" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9228,20 +9228,20 @@
         <v>485</v>
       </c>
       <c r="B17" s="374"/>
-      <c r="C17" s="979" t="s">
+      <c r="C17" s="982" t="s">
         <v>471</v>
       </c>
-      <c r="D17" s="980"/>
-      <c r="E17" s="981"/>
-      <c r="F17" s="979" t="s">
+      <c r="D17" s="984"/>
+      <c r="E17" s="983"/>
+      <c r="F17" s="982" t="s">
         <v>482</v>
       </c>
-      <c r="G17" s="980"/>
-      <c r="H17" s="981"/>
-      <c r="I17" s="979" t="s">
+      <c r="G17" s="984"/>
+      <c r="H17" s="983"/>
+      <c r="I17" s="982" t="s">
         <v>483</v>
       </c>
-      <c r="J17" s="981"/>
+      <c r="J17" s="983"/>
       <c r="K17" s="701"/>
     </row>
     <row r="18" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9271,20 +9271,20 @@
         <v>488</v>
       </c>
       <c r="B19" s="92"/>
-      <c r="C19" s="979" t="s">
+      <c r="C19" s="982" t="s">
         <v>471</v>
       </c>
-      <c r="D19" s="980"/>
-      <c r="E19" s="981"/>
+      <c r="D19" s="984"/>
+      <c r="E19" s="983"/>
       <c r="F19" s="734" t="s">
         <v>467</v>
       </c>
       <c r="G19" s="735"/>
       <c r="H19" s="736"/>
-      <c r="I19" s="979" t="s">
+      <c r="I19" s="982" t="s">
         <v>483</v>
       </c>
-      <c r="J19" s="981"/>
+      <c r="J19" s="983"/>
       <c r="K19" s="698"/>
       <c r="L19" s="14"/>
     </row>
@@ -9293,11 +9293,11 @@
         <v>489</v>
       </c>
       <c r="B20" s="678"/>
-      <c r="C20" s="979" t="s">
+      <c r="C20" s="982" t="s">
         <v>471</v>
       </c>
-      <c r="D20" s="980"/>
-      <c r="E20" s="981"/>
+      <c r="D20" s="984"/>
+      <c r="E20" s="983"/>
       <c r="F20" s="734" t="s">
         <v>490</v>
       </c>
@@ -9313,20 +9313,20 @@
         <v>362</v>
       </c>
       <c r="B21" s="374"/>
-      <c r="C21" s="979" t="s">
+      <c r="C21" s="982" t="s">
         <v>471</v>
       </c>
-      <c r="D21" s="980"/>
-      <c r="E21" s="981"/>
-      <c r="F21" s="979" t="s">
+      <c r="D21" s="984"/>
+      <c r="E21" s="983"/>
+      <c r="F21" s="982" t="s">
         <v>482</v>
       </c>
-      <c r="G21" s="980"/>
-      <c r="H21" s="981"/>
-      <c r="I21" s="979" t="s">
+      <c r="G21" s="984"/>
+      <c r="H21" s="983"/>
+      <c r="I21" s="982" t="s">
         <v>483</v>
       </c>
-      <c r="J21" s="981"/>
+      <c r="J21" s="983"/>
       <c r="K21" s="701"/>
       <c r="L21" s="14"/>
     </row>
@@ -9335,11 +9335,11 @@
         <v>491</v>
       </c>
       <c r="B22" s="678"/>
-      <c r="C22" s="979" t="s">
+      <c r="C22" s="982" t="s">
         <v>615</v>
       </c>
-      <c r="D22" s="980"/>
-      <c r="E22" s="981"/>
+      <c r="D22" s="984"/>
+      <c r="E22" s="983"/>
       <c r="F22" s="697"/>
       <c r="G22" s="695"/>
       <c r="H22" s="696"/>
@@ -9352,16 +9352,16 @@
         <v>588</v>
       </c>
       <c r="B23" s="678"/>
-      <c r="C23" s="979" t="s">
+      <c r="C23" s="982" t="s">
         <v>616</v>
       </c>
-      <c r="D23" s="980"/>
+      <c r="D23" s="984"/>
       <c r="E23" s="702"/>
-      <c r="F23" s="994" t="s">
+      <c r="F23" s="993" t="s">
         <v>616</v>
       </c>
-      <c r="G23" s="995"/>
-      <c r="H23" s="996"/>
+      <c r="G23" s="994"/>
+      <c r="H23" s="995"/>
       <c r="I23" s="703"/>
       <c r="J23" s="702"/>
       <c r="K23" s="701"/>
@@ -9371,36 +9371,36 @@
         <v>590</v>
       </c>
       <c r="B24" s="704"/>
-      <c r="C24" s="985" t="s">
+      <c r="C24" s="988" t="s">
         <v>471</v>
       </c>
-      <c r="D24" s="986"/>
+      <c r="D24" s="989"/>
       <c r="E24" s="705"/>
-      <c r="F24" s="985" t="s">
+      <c r="F24" s="988" t="s">
         <v>467</v>
       </c>
-      <c r="G24" s="986"/>
-      <c r="H24" s="987"/>
-      <c r="I24" s="979" t="s">
+      <c r="G24" s="989"/>
+      <c r="H24" s="1003"/>
+      <c r="I24" s="982" t="s">
         <v>487</v>
       </c>
-      <c r="J24" s="981"/>
+      <c r="J24" s="983"/>
       <c r="K24" s="701"/>
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="950" t="s">
+      <c r="A25" s="956" t="s">
         <v>387</v>
       </c>
-      <c r="B25" s="951"/>
-      <c r="C25" s="951"/>
-      <c r="D25" s="951"/>
-      <c r="E25" s="951"/>
-      <c r="F25" s="951"/>
-      <c r="G25" s="951"/>
-      <c r="H25" s="951"/>
-      <c r="I25" s="951"/>
-      <c r="J25" s="951"/>
-      <c r="K25" s="952"/>
+      <c r="B25" s="957"/>
+      <c r="C25" s="957"/>
+      <c r="D25" s="957"/>
+      <c r="E25" s="957"/>
+      <c r="F25" s="957"/>
+      <c r="G25" s="957"/>
+      <c r="H25" s="957"/>
+      <c r="I25" s="957"/>
+      <c r="J25" s="957"/>
+      <c r="K25" s="958"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9408,20 +9408,20 @@
         <v>492</v>
       </c>
       <c r="B26" s="706"/>
-      <c r="C26" s="975" t="s">
+      <c r="C26" s="996" t="s">
         <v>617</v>
       </c>
-      <c r="D26" s="975"/>
-      <c r="E26" s="975"/>
-      <c r="F26" s="976" t="s">
+      <c r="D26" s="996"/>
+      <c r="E26" s="996"/>
+      <c r="F26" s="997" t="s">
         <v>490</v>
       </c>
-      <c r="G26" s="977"/>
-      <c r="H26" s="978"/>
-      <c r="I26" s="976" t="s">
+      <c r="G26" s="998"/>
+      <c r="H26" s="999"/>
+      <c r="I26" s="997" t="s">
         <v>618</v>
       </c>
-      <c r="J26" s="978"/>
+      <c r="J26" s="999"/>
       <c r="K26" s="707"/>
       <c r="L26" s="14"/>
     </row>
@@ -9547,23 +9547,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F23:H23"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:J26"/>
@@ -9580,6 +9563,23 @@
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -12325,12 +12325,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F6B619-CF03-4ECA-B592-6E874BC60C2E}">
-  <sheetPr syncVertical="1" syncRef="A28" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -12478,29 +12478,29 @@
       <c r="S5" s="68"/>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="838" t="s">
+      <c r="A6" s="847" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="836"/>
-      <c r="C6" s="836"/>
-      <c r="D6" s="836"/>
-      <c r="E6" s="836"/>
-      <c r="F6" s="836"/>
-      <c r="G6" s="836"/>
-      <c r="H6" s="836"/>
-      <c r="I6" s="836"/>
-      <c r="J6" s="836"/>
-      <c r="K6" s="839"/>
-      <c r="L6" s="835" t="s">
+      <c r="B6" s="845"/>
+      <c r="C6" s="845"/>
+      <c r="D6" s="845"/>
+      <c r="E6" s="845"/>
+      <c r="F6" s="845"/>
+      <c r="G6" s="845"/>
+      <c r="H6" s="845"/>
+      <c r="I6" s="845"/>
+      <c r="J6" s="845"/>
+      <c r="K6" s="848"/>
+      <c r="L6" s="844" t="s">
         <v>273</v>
       </c>
-      <c r="M6" s="836"/>
-      <c r="N6" s="836"/>
-      <c r="O6" s="836"/>
-      <c r="P6" s="836"/>
-      <c r="Q6" s="836"/>
-      <c r="R6" s="836"/>
-      <c r="S6" s="837"/>
+      <c r="M6" s="845"/>
+      <c r="N6" s="845"/>
+      <c r="O6" s="845"/>
+      <c r="P6" s="845"/>
+      <c r="Q6" s="845"/>
+      <c r="R6" s="845"/>
+      <c r="S6" s="846"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
@@ -12585,18 +12585,18 @@
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="101"/>
-      <c r="B10" s="840" t="s">
+      <c r="B10" s="849" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="841"/>
-      <c r="D10" s="841"/>
-      <c r="E10" s="841"/>
-      <c r="F10" s="841"/>
-      <c r="G10" s="841"/>
-      <c r="H10" s="841"/>
-      <c r="I10" s="841"/>
-      <c r="J10" s="841"/>
-      <c r="K10" s="842"/>
+      <c r="C10" s="850"/>
+      <c r="D10" s="850"/>
+      <c r="E10" s="850"/>
+      <c r="F10" s="850"/>
+      <c r="G10" s="850"/>
+      <c r="H10" s="850"/>
+      <c r="I10" s="850"/>
+      <c r="J10" s="850"/>
+      <c r="K10" s="851"/>
       <c r="L10" s="105" t="s">
         <v>119</v>
       </c>
@@ -12606,7 +12606,7 @@
       <c r="P10" s="107"/>
       <c r="Q10" s="293"/>
       <c r="R10" s="109"/>
-      <c r="S10" s="847" t="s">
+      <c r="S10" s="839" t="s">
         <v>268</v>
       </c>
     </row>
@@ -12614,20 +12614,20 @@
       <c r="A11" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="840" t="s">
+      <c r="B11" s="849" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="841"/>
-      <c r="D11" s="841"/>
-      <c r="E11" s="841"/>
-      <c r="F11" s="842"/>
-      <c r="G11" s="840" t="s">
+      <c r="C11" s="850"/>
+      <c r="D11" s="850"/>
+      <c r="E11" s="850"/>
+      <c r="F11" s="851"/>
+      <c r="G11" s="849" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="841"/>
-      <c r="I11" s="841"/>
-      <c r="J11" s="841"/>
-      <c r="K11" s="842"/>
+      <c r="H11" s="850"/>
+      <c r="I11" s="850"/>
+      <c r="J11" s="850"/>
+      <c r="K11" s="851"/>
       <c r="L11" s="106" t="s">
         <v>7</v>
       </c>
@@ -12635,11 +12635,11 @@
       <c r="N11" s="106"/>
       <c r="O11" s="106"/>
       <c r="P11" s="107"/>
-      <c r="Q11" s="843" t="s">
+      <c r="Q11" s="835" t="s">
         <v>103</v>
       </c>
-      <c r="R11" s="844"/>
-      <c r="S11" s="848"/>
+      <c r="R11" s="836"/>
+      <c r="S11" s="840"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="108" t="s">
@@ -12648,72 +12648,72 @@
       <c r="B12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="845" t="s">
+      <c r="C12" s="837" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="846"/>
+      <c r="D12" s="838"/>
       <c r="E12" s="105"/>
       <c r="F12" s="107"/>
       <c r="G12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="845" t="s">
+      <c r="H12" s="837" t="s">
         <v>263</v>
       </c>
-      <c r="I12" s="846"/>
+      <c r="I12" s="838"/>
       <c r="J12" s="100"/>
       <c r="K12" s="109"/>
       <c r="L12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="845" t="s">
+      <c r="M12" s="837" t="s">
         <v>263</v>
       </c>
-      <c r="N12" s="846"/>
+      <c r="N12" s="838"/>
       <c r="O12" s="100"/>
       <c r="P12" s="109"/>
-      <c r="Q12" s="843" t="s">
+      <c r="Q12" s="835" t="s">
         <v>109</v>
       </c>
-      <c r="R12" s="844"/>
-      <c r="S12" s="848"/>
+      <c r="R12" s="836"/>
+      <c r="S12" s="840"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="108" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="56"/>
-      <c r="C13" s="843" t="s">
+      <c r="C13" s="835" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="844"/>
+      <c r="D13" s="836"/>
       <c r="E13" s="60" t="s">
         <v>108</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="56"/>
-      <c r="H13" s="843" t="s">
+      <c r="H13" s="835" t="s">
         <v>264</v>
       </c>
-      <c r="I13" s="844"/>
-      <c r="J13" s="843" t="s">
+      <c r="I13" s="836"/>
+      <c r="J13" s="835" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="844"/>
+      <c r="K13" s="836"/>
       <c r="L13" s="56"/>
-      <c r="M13" s="843" t="s">
+      <c r="M13" s="835" t="s">
         <v>264</v>
       </c>
-      <c r="N13" s="844"/>
-      <c r="O13" s="843" t="s">
+      <c r="N13" s="836"/>
+      <c r="O13" s="835" t="s">
         <v>108</v>
       </c>
-      <c r="P13" s="844"/>
-      <c r="Q13" s="843" t="s">
+      <c r="P13" s="836"/>
+      <c r="Q13" s="835" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="844"/>
-      <c r="S13" s="848"/>
+      <c r="R13" s="836"/>
+      <c r="S13" s="840"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="108" t="s">
@@ -12722,33 +12722,33 @@
       <c r="B14" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="850" t="s">
+      <c r="C14" s="842" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="851"/>
+      <c r="D14" s="843"/>
       <c r="E14" s="63"/>
       <c r="F14" s="62"/>
       <c r="G14" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="850" t="s">
+      <c r="H14" s="842" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="851"/>
+      <c r="I14" s="843"/>
       <c r="J14" s="1"/>
       <c r="K14" s="58"/>
       <c r="L14" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="850" t="s">
+      <c r="M14" s="842" t="s">
         <v>124</v>
       </c>
-      <c r="N14" s="851"/>
+      <c r="N14" s="843"/>
       <c r="O14" s="1"/>
       <c r="P14" s="58"/>
       <c r="Q14" s="294"/>
       <c r="R14" s="58"/>
-      <c r="S14" s="848"/>
+      <c r="S14" s="840"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="108" t="s">
@@ -12799,7 +12799,7 @@
       <c r="R15" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="S15" s="848"/>
+      <c r="S15" s="840"/>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="108" t="s">
@@ -12830,7 +12830,7 @@
       <c r="R16" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="S16" s="848"/>
+      <c r="S16" s="840"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="108"/>
@@ -12867,7 +12867,7 @@
       <c r="R17" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="S17" s="848"/>
+      <c r="S17" s="840"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="110" t="s">
@@ -12924,7 +12924,7 @@
       <c r="R18" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="849"/>
+      <c r="S18" s="841"/>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="747" t="s">
@@ -14677,6 +14677,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
@@ -14692,11 +14697,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -14875,7 +14875,7 @@
       <c r="U5" s="541"/>
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="873" t="s">
+      <c r="A6" s="855" t="s">
         <v>272</v>
       </c>
       <c r="B6" s="853"/>
@@ -14888,7 +14888,7 @@
       <c r="I6" s="853"/>
       <c r="J6" s="853"/>
       <c r="K6" s="853"/>
-      <c r="L6" s="874"/>
+      <c r="L6" s="856"/>
       <c r="M6" s="852" t="s">
         <v>273</v>
       </c>
@@ -14988,19 +14988,19 @@
       <c r="A10" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="855" t="s">
+      <c r="B10" s="857" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="856"/>
-      <c r="D10" s="856"/>
-      <c r="E10" s="856"/>
-      <c r="F10" s="856"/>
-      <c r="G10" s="856"/>
-      <c r="H10" s="856"/>
-      <c r="I10" s="856"/>
-      <c r="J10" s="856"/>
-      <c r="K10" s="856"/>
-      <c r="L10" s="856"/>
+      <c r="C10" s="858"/>
+      <c r="D10" s="858"/>
+      <c r="E10" s="858"/>
+      <c r="F10" s="858"/>
+      <c r="G10" s="858"/>
+      <c r="H10" s="858"/>
+      <c r="I10" s="858"/>
+      <c r="J10" s="858"/>
+      <c r="K10" s="858"/>
+      <c r="L10" s="858"/>
       <c r="M10" s="555" t="s">
         <v>291</v>
       </c>
@@ -15013,7 +15013,7 @@
       <c r="R10" s="558"/>
       <c r="S10" s="559"/>
       <c r="T10" s="560"/>
-      <c r="U10" s="857" t="s">
+      <c r="U10" s="862" t="s">
         <v>293</v>
       </c>
     </row>
@@ -15021,13 +15021,13 @@
       <c r="A11" s="561" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="855" t="s">
+      <c r="B11" s="857" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="856"/>
-      <c r="D11" s="856"/>
-      <c r="E11" s="856"/>
-      <c r="F11" s="860"/>
+      <c r="C11" s="858"/>
+      <c r="D11" s="858"/>
+      <c r="E11" s="858"/>
+      <c r="F11" s="859"/>
       <c r="G11" s="557" t="s">
         <v>7</v>
       </c>
@@ -15048,11 +15048,11 @@
       <c r="P11" s="557"/>
       <c r="Q11" s="557"/>
       <c r="R11" s="558"/>
-      <c r="S11" s="861" t="s">
+      <c r="S11" s="860" t="s">
         <v>113</v>
       </c>
-      <c r="T11" s="862"/>
-      <c r="U11" s="858"/>
+      <c r="T11" s="861"/>
+      <c r="U11" s="863"/>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="561" t="s">
@@ -15061,19 +15061,19 @@
       <c r="B12" s="555" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="863" t="s">
+      <c r="C12" s="865" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="864"/>
+      <c r="D12" s="866"/>
       <c r="E12" s="559"/>
       <c r="F12" s="560"/>
       <c r="G12" s="555" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="863" t="s">
+      <c r="H12" s="865" t="s">
         <v>263</v>
       </c>
-      <c r="I12" s="864"/>
+      <c r="I12" s="866"/>
       <c r="J12" s="559"/>
       <c r="K12" s="560"/>
       <c r="L12" s="565" t="s">
@@ -15085,40 +15085,40 @@
       <c r="N12" s="555" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="863" t="s">
+      <c r="O12" s="865" t="s">
         <v>263</v>
       </c>
-      <c r="P12" s="864"/>
+      <c r="P12" s="866"/>
       <c r="Q12" s="567"/>
       <c r="R12" s="560"/>
-      <c r="S12" s="861" t="s">
+      <c r="S12" s="860" t="s">
         <v>114</v>
       </c>
-      <c r="T12" s="862"/>
-      <c r="U12" s="858"/>
+      <c r="T12" s="861"/>
+      <c r="U12" s="863"/>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="561" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="564"/>
-      <c r="C13" s="861" t="s">
+      <c r="C13" s="860" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="862"/>
-      <c r="E13" s="861" t="s">
+      <c r="D13" s="861"/>
+      <c r="E13" s="860" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="862"/>
+      <c r="F13" s="861"/>
       <c r="G13" s="564"/>
-      <c r="H13" s="861" t="s">
+      <c r="H13" s="860" t="s">
         <v>264</v>
       </c>
-      <c r="I13" s="862"/>
-      <c r="J13" s="861" t="s">
+      <c r="I13" s="861"/>
+      <c r="J13" s="860" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="862"/>
+      <c r="K13" s="861"/>
       <c r="L13" s="565" t="s">
         <v>288</v>
       </c>
@@ -15126,19 +15126,19 @@
         <v>292</v>
       </c>
       <c r="N13" s="568"/>
-      <c r="O13" s="861" t="s">
+      <c r="O13" s="860" t="s">
         <v>264</v>
       </c>
-      <c r="P13" s="862"/>
-      <c r="Q13" s="861" t="s">
+      <c r="P13" s="861"/>
+      <c r="Q13" s="860" t="s">
         <v>108</v>
       </c>
-      <c r="R13" s="862"/>
-      <c r="S13" s="861" t="s">
+      <c r="R13" s="861"/>
+      <c r="S13" s="860" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="862"/>
-      <c r="U13" s="858"/>
+      <c r="T13" s="861"/>
+      <c r="U13" s="863"/>
     </row>
     <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="561" t="s">
@@ -15147,19 +15147,19 @@
       <c r="B14" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="865" t="s">
+      <c r="C14" s="867" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="866"/>
+      <c r="D14" s="868"/>
       <c r="E14" s="569"/>
       <c r="F14" s="570"/>
       <c r="G14" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="865" t="s">
+      <c r="H14" s="867" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="866"/>
+      <c r="I14" s="868"/>
       <c r="J14" s="569"/>
       <c r="K14" s="570"/>
       <c r="L14" s="565" t="s">
@@ -15169,15 +15169,15 @@
       <c r="N14" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="865" t="s">
+      <c r="O14" s="867" t="s">
         <v>124</v>
       </c>
-      <c r="P14" s="866"/>
+      <c r="P14" s="868"/>
       <c r="Q14" s="544"/>
       <c r="R14" s="571"/>
       <c r="S14" s="572"/>
       <c r="T14" s="571"/>
-      <c r="U14" s="858"/>
+      <c r="U14" s="863"/>
     </row>
     <row r="15" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="561" t="s">
@@ -15234,7 +15234,7 @@
       <c r="T15" s="555" t="s">
         <v>274</v>
       </c>
-      <c r="U15" s="858"/>
+      <c r="U15" s="863"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="561" t="s">
@@ -15269,7 +15269,7 @@
       <c r="T16" s="564" t="s">
         <v>269</v>
       </c>
-      <c r="U16" s="858"/>
+      <c r="U16" s="863"/>
     </row>
     <row r="17" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="561"/>
@@ -15318,7 +15318,7 @@
       <c r="T17" s="566" t="s">
         <v>50</v>
       </c>
-      <c r="U17" s="858"/>
+      <c r="U17" s="863"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="574" t="s">
@@ -15381,32 +15381,32 @@
       <c r="T18" s="562" t="s">
         <v>70</v>
       </c>
-      <c r="U18" s="859"/>
+      <c r="U18" s="864"/>
     </row>
     <row r="19" spans="1:21" s="576" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="870" t="s">
+      <c r="A19" s="872" t="s">
         <v>369</v>
       </c>
-      <c r="B19" s="871"/>
-      <c r="C19" s="871"/>
-      <c r="D19" s="871"/>
-      <c r="E19" s="871"/>
-      <c r="F19" s="871"/>
-      <c r="G19" s="871"/>
-      <c r="H19" s="871"/>
-      <c r="I19" s="871"/>
-      <c r="J19" s="871"/>
-      <c r="K19" s="871"/>
-      <c r="L19" s="871"/>
-      <c r="M19" s="871"/>
-      <c r="N19" s="871"/>
-      <c r="O19" s="871"/>
-      <c r="P19" s="871"/>
-      <c r="Q19" s="871"/>
-      <c r="R19" s="871"/>
-      <c r="S19" s="871"/>
-      <c r="T19" s="871"/>
-      <c r="U19" s="872"/>
+      <c r="B19" s="873"/>
+      <c r="C19" s="873"/>
+      <c r="D19" s="873"/>
+      <c r="E19" s="873"/>
+      <c r="F19" s="873"/>
+      <c r="G19" s="873"/>
+      <c r="H19" s="873"/>
+      <c r="I19" s="873"/>
+      <c r="J19" s="873"/>
+      <c r="K19" s="873"/>
+      <c r="L19" s="873"/>
+      <c r="M19" s="873"/>
+      <c r="N19" s="873"/>
+      <c r="O19" s="873"/>
+      <c r="P19" s="873"/>
+      <c r="Q19" s="873"/>
+      <c r="R19" s="873"/>
+      <c r="S19" s="873"/>
+      <c r="T19" s="873"/>
+      <c r="U19" s="874"/>
     </row>
     <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="588" t="s">
@@ -16644,29 +16644,29 @@
       </c>
     </row>
     <row r="39" spans="1:21" s="576" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="870" t="s">
+      <c r="A39" s="872" t="s">
         <v>387</v>
       </c>
-      <c r="B39" s="871"/>
-      <c r="C39" s="871"/>
-      <c r="D39" s="871"/>
-      <c r="E39" s="871"/>
-      <c r="F39" s="871"/>
-      <c r="G39" s="871"/>
-      <c r="H39" s="871"/>
-      <c r="I39" s="871"/>
-      <c r="J39" s="871"/>
-      <c r="K39" s="871"/>
-      <c r="L39" s="871"/>
-      <c r="M39" s="871"/>
-      <c r="N39" s="871"/>
-      <c r="O39" s="871"/>
-      <c r="P39" s="871"/>
-      <c r="Q39" s="871"/>
-      <c r="R39" s="871"/>
-      <c r="S39" s="871"/>
-      <c r="T39" s="871"/>
-      <c r="U39" s="872"/>
+      <c r="B39" s="873"/>
+      <c r="C39" s="873"/>
+      <c r="D39" s="873"/>
+      <c r="E39" s="873"/>
+      <c r="F39" s="873"/>
+      <c r="G39" s="873"/>
+      <c r="H39" s="873"/>
+      <c r="I39" s="873"/>
+      <c r="J39" s="873"/>
+      <c r="K39" s="873"/>
+      <c r="L39" s="873"/>
+      <c r="M39" s="873"/>
+      <c r="N39" s="873"/>
+      <c r="O39" s="873"/>
+      <c r="P39" s="873"/>
+      <c r="Q39" s="873"/>
+      <c r="R39" s="873"/>
+      <c r="S39" s="873"/>
+      <c r="T39" s="873"/>
+      <c r="U39" s="874"/>
     </row>
     <row r="40" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="588" t="s">
@@ -17254,29 +17254,29 @@
       </c>
     </row>
     <row r="49" spans="1:21" s="576" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="867" t="s">
+      <c r="A49" s="869" t="s">
         <v>327</v>
       </c>
-      <c r="B49" s="868"/>
-      <c r="C49" s="868"/>
-      <c r="D49" s="868"/>
-      <c r="E49" s="868"/>
-      <c r="F49" s="868"/>
-      <c r="G49" s="868"/>
-      <c r="H49" s="868"/>
-      <c r="I49" s="868"/>
-      <c r="J49" s="868"/>
-      <c r="K49" s="868"/>
-      <c r="L49" s="868"/>
-      <c r="M49" s="868"/>
-      <c r="N49" s="868"/>
-      <c r="O49" s="868"/>
-      <c r="P49" s="868"/>
-      <c r="Q49" s="868"/>
-      <c r="R49" s="868"/>
-      <c r="S49" s="868"/>
-      <c r="T49" s="868"/>
-      <c r="U49" s="869"/>
+      <c r="B49" s="870"/>
+      <c r="C49" s="870"/>
+      <c r="D49" s="870"/>
+      <c r="E49" s="870"/>
+      <c r="F49" s="870"/>
+      <c r="G49" s="870"/>
+      <c r="H49" s="870"/>
+      <c r="I49" s="870"/>
+      <c r="J49" s="870"/>
+      <c r="K49" s="870"/>
+      <c r="L49" s="870"/>
+      <c r="M49" s="870"/>
+      <c r="N49" s="870"/>
+      <c r="O49" s="870"/>
+      <c r="P49" s="870"/>
+      <c r="Q49" s="870"/>
+      <c r="R49" s="870"/>
+      <c r="S49" s="870"/>
+      <c r="T49" s="870"/>
+      <c r="U49" s="871"/>
     </row>
     <row r="50" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="737" t="s">
@@ -17995,7 +17995,7 @@
       <c r="U63" s="541"/>
     </row>
     <row r="64" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="873" t="s">
+      <c r="A64" s="855" t="s">
         <v>272</v>
       </c>
       <c r="B64" s="853"/>
@@ -18008,7 +18008,7 @@
       <c r="I64" s="853"/>
       <c r="J64" s="853"/>
       <c r="K64" s="853"/>
-      <c r="L64" s="874"/>
+      <c r="L64" s="856"/>
       <c r="M64" s="852" t="s">
         <v>273</v>
       </c>
@@ -18108,19 +18108,19 @@
       <c r="A68" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="855" t="s">
+      <c r="B68" s="857" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="856"/>
-      <c r="D68" s="856"/>
-      <c r="E68" s="856"/>
-      <c r="F68" s="856"/>
-      <c r="G68" s="856"/>
-      <c r="H68" s="856"/>
-      <c r="I68" s="856"/>
-      <c r="J68" s="856"/>
-      <c r="K68" s="856"/>
-      <c r="L68" s="856"/>
+      <c r="C68" s="858"/>
+      <c r="D68" s="858"/>
+      <c r="E68" s="858"/>
+      <c r="F68" s="858"/>
+      <c r="G68" s="858"/>
+      <c r="H68" s="858"/>
+      <c r="I68" s="858"/>
+      <c r="J68" s="858"/>
+      <c r="K68" s="858"/>
+      <c r="L68" s="858"/>
       <c r="M68" s="555" t="s">
         <v>291</v>
       </c>
@@ -18133,7 +18133,7 @@
       <c r="R68" s="558"/>
       <c r="S68" s="559"/>
       <c r="T68" s="560"/>
-      <c r="U68" s="857" t="s">
+      <c r="U68" s="862" t="s">
         <v>293</v>
       </c>
     </row>
@@ -18141,13 +18141,13 @@
       <c r="A69" s="561" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="855" t="s">
+      <c r="B69" s="857" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="856"/>
-      <c r="D69" s="856"/>
-      <c r="E69" s="856"/>
-      <c r="F69" s="860"/>
+      <c r="C69" s="858"/>
+      <c r="D69" s="858"/>
+      <c r="E69" s="858"/>
+      <c r="F69" s="859"/>
       <c r="G69" s="557" t="s">
         <v>7</v>
       </c>
@@ -18168,11 +18168,11 @@
       <c r="P69" s="557"/>
       <c r="Q69" s="557"/>
       <c r="R69" s="558"/>
-      <c r="S69" s="861" t="s">
+      <c r="S69" s="860" t="s">
         <v>113</v>
       </c>
-      <c r="T69" s="862"/>
-      <c r="U69" s="858"/>
+      <c r="T69" s="861"/>
+      <c r="U69" s="863"/>
     </row>
     <row r="70" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="561" t="s">
@@ -18181,19 +18181,19 @@
       <c r="B70" s="555" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="863" t="s">
+      <c r="C70" s="865" t="s">
         <v>263</v>
       </c>
-      <c r="D70" s="864"/>
+      <c r="D70" s="866"/>
       <c r="E70" s="559"/>
       <c r="F70" s="560"/>
       <c r="G70" s="555" t="s">
         <v>9</v>
       </c>
-      <c r="H70" s="863" t="s">
+      <c r="H70" s="865" t="s">
         <v>263</v>
       </c>
-      <c r="I70" s="864"/>
+      <c r="I70" s="866"/>
       <c r="J70" s="559"/>
       <c r="K70" s="560"/>
       <c r="L70" s="565" t="s">
@@ -18205,40 +18205,40 @@
       <c r="N70" s="555" t="s">
         <v>9</v>
       </c>
-      <c r="O70" s="863" t="s">
+      <c r="O70" s="865" t="s">
         <v>263</v>
       </c>
-      <c r="P70" s="864"/>
+      <c r="P70" s="866"/>
       <c r="Q70" s="567"/>
       <c r="R70" s="560"/>
-      <c r="S70" s="861" t="s">
+      <c r="S70" s="860" t="s">
         <v>114</v>
       </c>
-      <c r="T70" s="862"/>
-      <c r="U70" s="858"/>
+      <c r="T70" s="861"/>
+      <c r="U70" s="863"/>
     </row>
     <row r="71" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="561" t="s">
         <v>41</v>
       </c>
       <c r="B71" s="564"/>
-      <c r="C71" s="861" t="s">
+      <c r="C71" s="860" t="s">
         <v>264</v>
       </c>
-      <c r="D71" s="862"/>
-      <c r="E71" s="861" t="s">
+      <c r="D71" s="861"/>
+      <c r="E71" s="860" t="s">
         <v>108</v>
       </c>
-      <c r="F71" s="862"/>
+      <c r="F71" s="861"/>
       <c r="G71" s="564"/>
-      <c r="H71" s="861" t="s">
+      <c r="H71" s="860" t="s">
         <v>264</v>
       </c>
-      <c r="I71" s="862"/>
-      <c r="J71" s="861" t="s">
+      <c r="I71" s="861"/>
+      <c r="J71" s="860" t="s">
         <v>108</v>
       </c>
-      <c r="K71" s="862"/>
+      <c r="K71" s="861"/>
       <c r="L71" s="565" t="s">
         <v>288</v>
       </c>
@@ -18246,19 +18246,19 @@
         <v>292</v>
       </c>
       <c r="N71" s="568"/>
-      <c r="O71" s="861" t="s">
+      <c r="O71" s="860" t="s">
         <v>264</v>
       </c>
-      <c r="P71" s="862"/>
-      <c r="Q71" s="861" t="s">
+      <c r="P71" s="861"/>
+      <c r="Q71" s="860" t="s">
         <v>108</v>
       </c>
-      <c r="R71" s="862"/>
-      <c r="S71" s="861" t="s">
+      <c r="R71" s="861"/>
+      <c r="S71" s="860" t="s">
         <v>42</v>
       </c>
-      <c r="T71" s="862"/>
-      <c r="U71" s="858"/>
+      <c r="T71" s="861"/>
+      <c r="U71" s="863"/>
     </row>
     <row r="72" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="561" t="s">
@@ -18267,19 +18267,19 @@
       <c r="B72" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="865" t="s">
+      <c r="C72" s="867" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="866"/>
+      <c r="D72" s="868"/>
       <c r="E72" s="569"/>
       <c r="F72" s="570"/>
       <c r="G72" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="865" t="s">
+      <c r="H72" s="867" t="s">
         <v>124</v>
       </c>
-      <c r="I72" s="866"/>
+      <c r="I72" s="868"/>
       <c r="J72" s="569"/>
       <c r="K72" s="570"/>
       <c r="L72" s="565" t="s">
@@ -18289,15 +18289,15 @@
       <c r="N72" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="O72" s="865" t="s">
+      <c r="O72" s="867" t="s">
         <v>124</v>
       </c>
-      <c r="P72" s="866"/>
+      <c r="P72" s="868"/>
       <c r="Q72" s="544"/>
       <c r="R72" s="571"/>
       <c r="S72" s="572"/>
       <c r="T72" s="571"/>
-      <c r="U72" s="858"/>
+      <c r="U72" s="863"/>
     </row>
     <row r="73" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="561" t="s">
@@ -18354,7 +18354,7 @@
       <c r="T73" s="555" t="s">
         <v>274</v>
       </c>
-      <c r="U73" s="858"/>
+      <c r="U73" s="863"/>
     </row>
     <row r="74" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="561" t="s">
@@ -18389,7 +18389,7 @@
       <c r="T74" s="564" t="s">
         <v>269</v>
       </c>
-      <c r="U74" s="858"/>
+      <c r="U74" s="863"/>
     </row>
     <row r="75" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="561"/>
@@ -18438,7 +18438,7 @@
       <c r="T75" s="566" t="s">
         <v>50</v>
       </c>
-      <c r="U75" s="858"/>
+      <c r="U75" s="863"/>
     </row>
     <row r="76" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="574" t="s">
@@ -18501,7 +18501,7 @@
       <c r="T76" s="562" t="s">
         <v>70</v>
       </c>
-      <c r="U76" s="859"/>
+      <c r="U76" s="864"/>
     </row>
     <row r="77" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="737" t="s">
@@ -19994,11 +19994,28 @@
   </sheetData>
   <autoFilter ref="M11:M99" xr:uid="{BB60F317-8D4E-451E-B96D-965AEAF5F183}"/>
   <mergeCells count="43">
-    <mergeCell ref="M6:U6"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="M64:U64"/>
+    <mergeCell ref="B68:L68"/>
+    <mergeCell ref="U68:U76"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="A49:U49"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A39:U39"/>
+    <mergeCell ref="A19:U19"/>
     <mergeCell ref="J71:K71"/>
     <mergeCell ref="O71:P71"/>
     <mergeCell ref="Q71:R71"/>
@@ -20015,28 +20032,11 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A49:U49"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A39:U39"/>
-    <mergeCell ref="A19:U19"/>
-    <mergeCell ref="M64:U64"/>
-    <mergeCell ref="B68:L68"/>
-    <mergeCell ref="U68:U76"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="M6:U6"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="S11:T11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -20056,7 +20056,7 @@
   </sheetPr>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -20320,17 +20320,17 @@
         <v>135</v>
       </c>
       <c r="F13" s="160"/>
-      <c r="G13" s="840" t="s">
+      <c r="G13" s="849" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="842"/>
+      <c r="H13" s="851"/>
       <c r="I13" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="840" t="s">
+      <c r="J13" s="849" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="842"/>
+      <c r="K13" s="851"/>
       <c r="L13" s="188" t="s">
         <v>138</v>
       </c>
@@ -20350,17 +20350,17 @@
       <c r="F14" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="G14" s="840">
+      <c r="G14" s="849">
         <v>3</v>
       </c>
-      <c r="H14" s="842"/>
+      <c r="H14" s="851"/>
       <c r="I14" s="111">
         <v>1</v>
       </c>
-      <c r="J14" s="840">
+      <c r="J14" s="849">
         <v>2</v>
       </c>
-      <c r="K14" s="842"/>
+      <c r="K14" s="851"/>
       <c r="L14" s="112"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21639,23 +21639,23 @@
       <c r="N5" s="313"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="885" t="s">
+      <c r="A6" s="889" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="841"/>
-      <c r="C6" s="841"/>
-      <c r="D6" s="841"/>
-      <c r="E6" s="841"/>
-      <c r="F6" s="842"/>
-      <c r="G6" s="840" t="s">
+      <c r="B6" s="850"/>
+      <c r="C6" s="850"/>
+      <c r="D6" s="850"/>
+      <c r="E6" s="850"/>
+      <c r="F6" s="851"/>
+      <c r="G6" s="849" t="s">
         <v>273</v>
       </c>
-      <c r="H6" s="841"/>
-      <c r="I6" s="841"/>
-      <c r="J6" s="841"/>
-      <c r="K6" s="841"/>
-      <c r="L6" s="841"/>
-      <c r="M6" s="841"/>
+      <c r="H6" s="850"/>
+      <c r="I6" s="850"/>
+      <c r="J6" s="850"/>
+      <c r="K6" s="850"/>
+      <c r="L6" s="850"/>
+      <c r="M6" s="850"/>
       <c r="N6" s="884"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21731,24 +21731,24 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64"/>
-      <c r="B10" s="840" t="s">
+      <c r="B10" s="849" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="841"/>
+      <c r="C10" s="850"/>
       <c r="D10" s="888"/>
-      <c r="E10" s="889" t="s">
+      <c r="E10" s="885" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="890"/>
-      <c r="G10" s="890"/>
-      <c r="H10" s="890"/>
-      <c r="I10" s="890"/>
-      <c r="J10" s="890"/>
-      <c r="K10" s="891"/>
-      <c r="L10" s="841" t="s">
+      <c r="F10" s="886"/>
+      <c r="G10" s="886"/>
+      <c r="H10" s="886"/>
+      <c r="I10" s="886"/>
+      <c r="J10" s="886"/>
+      <c r="K10" s="887"/>
+      <c r="L10" s="850" t="s">
         <v>196</v>
       </c>
-      <c r="M10" s="841"/>
+      <c r="M10" s="850"/>
       <c r="N10" s="884"/>
     </row>
     <row r="11" spans="1:14" ht="123" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -21880,22 +21880,22 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="380" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="867" t="s">
+      <c r="A14" s="869" t="s">
         <v>369</v>
       </c>
-      <c r="B14" s="886"/>
-      <c r="C14" s="886"/>
-      <c r="D14" s="886"/>
-      <c r="E14" s="886"/>
-      <c r="F14" s="886"/>
-      <c r="G14" s="886"/>
-      <c r="H14" s="886"/>
-      <c r="I14" s="886"/>
-      <c r="J14" s="886"/>
-      <c r="K14" s="886"/>
-      <c r="L14" s="886"/>
-      <c r="M14" s="886"/>
-      <c r="N14" s="887"/>
+      <c r="B14" s="890"/>
+      <c r="C14" s="890"/>
+      <c r="D14" s="890"/>
+      <c r="E14" s="890"/>
+      <c r="F14" s="890"/>
+      <c r="G14" s="890"/>
+      <c r="H14" s="890"/>
+      <c r="I14" s="890"/>
+      <c r="J14" s="890"/>
+      <c r="K14" s="890"/>
+      <c r="L14" s="890"/>
+      <c r="M14" s="890"/>
+      <c r="N14" s="891"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="394" t="s">
@@ -22446,22 +22446,22 @@
       </c>
     </row>
     <row r="34" spans="1:14" s="380" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="867" t="s">
+      <c r="A34" s="869" t="s">
         <v>387</v>
       </c>
-      <c r="B34" s="886"/>
-      <c r="C34" s="886"/>
-      <c r="D34" s="886"/>
-      <c r="E34" s="886"/>
-      <c r="F34" s="886"/>
-      <c r="G34" s="886"/>
-      <c r="H34" s="886"/>
-      <c r="I34" s="886"/>
-      <c r="J34" s="886"/>
-      <c r="K34" s="886"/>
-      <c r="L34" s="886"/>
-      <c r="M34" s="886"/>
-      <c r="N34" s="887"/>
+      <c r="B34" s="890"/>
+      <c r="C34" s="890"/>
+      <c r="D34" s="890"/>
+      <c r="E34" s="890"/>
+      <c r="F34" s="890"/>
+      <c r="G34" s="890"/>
+      <c r="H34" s="890"/>
+      <c r="I34" s="890"/>
+      <c r="J34" s="890"/>
+      <c r="K34" s="890"/>
+      <c r="L34" s="890"/>
+      <c r="M34" s="890"/>
+      <c r="N34" s="891"/>
     </row>
     <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="437" t="s">
@@ -22672,23 +22672,23 @@
       <c r="N43" s="313"/>
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="885" t="s">
+      <c r="A44" s="889" t="s">
         <v>272</v>
       </c>
-      <c r="B44" s="841"/>
-      <c r="C44" s="841"/>
-      <c r="D44" s="841"/>
-      <c r="E44" s="841"/>
-      <c r="F44" s="842"/>
-      <c r="G44" s="840" t="s">
+      <c r="B44" s="850"/>
+      <c r="C44" s="850"/>
+      <c r="D44" s="850"/>
+      <c r="E44" s="850"/>
+      <c r="F44" s="851"/>
+      <c r="G44" s="849" t="s">
         <v>273</v>
       </c>
-      <c r="H44" s="841"/>
-      <c r="I44" s="841"/>
-      <c r="J44" s="841"/>
-      <c r="K44" s="841"/>
-      <c r="L44" s="841"/>
-      <c r="M44" s="841"/>
+      <c r="H44" s="850"/>
+      <c r="I44" s="850"/>
+      <c r="J44" s="850"/>
+      <c r="K44" s="850"/>
+      <c r="L44" s="850"/>
+      <c r="M44" s="850"/>
       <c r="N44" s="884"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -22764,24 +22764,24 @@
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
-      <c r="B48" s="840" t="s">
+      <c r="B48" s="849" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="841"/>
+      <c r="C48" s="850"/>
       <c r="D48" s="888"/>
-      <c r="E48" s="889" t="s">
+      <c r="E48" s="885" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="890"/>
-      <c r="G48" s="890"/>
-      <c r="H48" s="890"/>
-      <c r="I48" s="890"/>
-      <c r="J48" s="890"/>
-      <c r="K48" s="891"/>
-      <c r="L48" s="841" t="s">
+      <c r="F48" s="886"/>
+      <c r="G48" s="886"/>
+      <c r="H48" s="886"/>
+      <c r="I48" s="886"/>
+      <c r="J48" s="886"/>
+      <c r="K48" s="887"/>
+      <c r="L48" s="850" t="s">
         <v>196</v>
       </c>
-      <c r="M48" s="841"/>
+      <c r="M48" s="850"/>
       <c r="N48" s="884"/>
     </row>
     <row r="49" spans="1:14" ht="123" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -23069,22 +23069,22 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="380" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="867" t="s">
+      <c r="A57" s="869" t="s">
         <v>327</v>
       </c>
-      <c r="B57" s="886"/>
-      <c r="C57" s="886"/>
-      <c r="D57" s="886"/>
-      <c r="E57" s="886"/>
-      <c r="F57" s="886"/>
-      <c r="G57" s="886"/>
-      <c r="H57" s="886"/>
-      <c r="I57" s="886"/>
-      <c r="J57" s="886"/>
-      <c r="K57" s="886"/>
-      <c r="L57" s="886"/>
-      <c r="M57" s="886"/>
-      <c r="N57" s="887"/>
+      <c r="B57" s="890"/>
+      <c r="C57" s="890"/>
+      <c r="D57" s="890"/>
+      <c r="E57" s="890"/>
+      <c r="F57" s="890"/>
+      <c r="G57" s="890"/>
+      <c r="H57" s="890"/>
+      <c r="I57" s="890"/>
+      <c r="J57" s="890"/>
+      <c r="K57" s="890"/>
+      <c r="L57" s="890"/>
+      <c r="M57" s="890"/>
+      <c r="N57" s="891"/>
     </row>
     <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="394" t="s">
@@ -23715,23 +23715,23 @@
       <c r="N81" s="313"/>
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="885" t="s">
+      <c r="A82" s="889" t="s">
         <v>272</v>
       </c>
-      <c r="B82" s="841"/>
-      <c r="C82" s="841"/>
-      <c r="D82" s="841"/>
-      <c r="E82" s="841"/>
-      <c r="F82" s="842"/>
-      <c r="G82" s="840" t="s">
+      <c r="B82" s="850"/>
+      <c r="C82" s="850"/>
+      <c r="D82" s="850"/>
+      <c r="E82" s="850"/>
+      <c r="F82" s="851"/>
+      <c r="G82" s="849" t="s">
         <v>273</v>
       </c>
-      <c r="H82" s="841"/>
-      <c r="I82" s="841"/>
-      <c r="J82" s="841"/>
-      <c r="K82" s="841"/>
-      <c r="L82" s="841"/>
-      <c r="M82" s="841"/>
+      <c r="H82" s="850"/>
+      <c r="I82" s="850"/>
+      <c r="J82" s="850"/>
+      <c r="K82" s="850"/>
+      <c r="L82" s="850"/>
+      <c r="M82" s="850"/>
       <c r="N82" s="884"/>
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -23807,24 +23807,24 @@
     </row>
     <row r="86" spans="1:14" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="64"/>
-      <c r="B86" s="840" t="s">
+      <c r="B86" s="849" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="841"/>
+      <c r="C86" s="850"/>
       <c r="D86" s="888"/>
-      <c r="E86" s="889" t="s">
+      <c r="E86" s="885" t="s">
         <v>195</v>
       </c>
-      <c r="F86" s="890"/>
-      <c r="G86" s="890"/>
-      <c r="H86" s="890"/>
-      <c r="I86" s="890"/>
-      <c r="J86" s="890"/>
-      <c r="K86" s="891"/>
-      <c r="L86" s="841" t="s">
+      <c r="F86" s="886"/>
+      <c r="G86" s="886"/>
+      <c r="H86" s="886"/>
+      <c r="I86" s="886"/>
+      <c r="J86" s="886"/>
+      <c r="K86" s="887"/>
+      <c r="L86" s="850" t="s">
         <v>196</v>
       </c>
-      <c r="M86" s="841"/>
+      <c r="M86" s="850"/>
       <c r="N86" s="884"/>
     </row>
     <row r="87" spans="1:14" ht="123" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -24421,14 +24421,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G82:N82"/>
-    <mergeCell ref="E48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:K86"/>
-    <mergeCell ref="A82:F82"/>
     <mergeCell ref="G6:N6"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A57:N57"/>
@@ -24439,6 +24431,14 @@
     <mergeCell ref="A34:N34"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="G44:N44"/>
+    <mergeCell ref="G82:N82"/>
+    <mergeCell ref="E48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:K86"/>
+    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -24557,20 +24557,20 @@
       <c r="K5" s="317"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="885" t="s">
+      <c r="A6" s="889" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="841"/>
-      <c r="C6" s="841"/>
-      <c r="D6" s="841"/>
-      <c r="E6" s="842"/>
-      <c r="F6" s="841" t="s">
+      <c r="B6" s="850"/>
+      <c r="C6" s="850"/>
+      <c r="D6" s="850"/>
+      <c r="E6" s="851"/>
+      <c r="F6" s="850" t="s">
         <v>273</v>
       </c>
-      <c r="G6" s="841"/>
-      <c r="H6" s="841"/>
-      <c r="I6" s="841"/>
-      <c r="J6" s="841"/>
+      <c r="G6" s="850"/>
+      <c r="H6" s="850"/>
+      <c r="I6" s="850"/>
+      <c r="J6" s="850"/>
       <c r="K6" s="884"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -24709,19 +24709,19 @@
       <c r="K12" s="906"/>
     </row>
     <row r="13" spans="1:13" s="380" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="867" t="s">
+      <c r="A13" s="869" t="s">
         <v>369</v>
       </c>
-      <c r="B13" s="886"/>
-      <c r="C13" s="886"/>
-      <c r="D13" s="886"/>
-      <c r="E13" s="886"/>
-      <c r="F13" s="886"/>
-      <c r="G13" s="886"/>
-      <c r="H13" s="886"/>
-      <c r="I13" s="886"/>
-      <c r="J13" s="886"/>
-      <c r="K13" s="887"/>
+      <c r="B13" s="890"/>
+      <c r="C13" s="890"/>
+      <c r="D13" s="890"/>
+      <c r="E13" s="890"/>
+      <c r="F13" s="890"/>
+      <c r="G13" s="890"/>
+      <c r="H13" s="890"/>
+      <c r="I13" s="890"/>
+      <c r="J13" s="890"/>
+      <c r="K13" s="891"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="394" t="s">
@@ -25351,19 +25351,19 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="380" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="867" t="s">
+      <c r="A33" s="869" t="s">
         <v>387</v>
       </c>
-      <c r="B33" s="886"/>
-      <c r="C33" s="886"/>
-      <c r="D33" s="886"/>
-      <c r="E33" s="886"/>
-      <c r="F33" s="886"/>
-      <c r="G33" s="886"/>
-      <c r="H33" s="886"/>
-      <c r="I33" s="886"/>
-      <c r="J33" s="886"/>
-      <c r="K33" s="887"/>
+      <c r="B33" s="890"/>
+      <c r="C33" s="890"/>
+      <c r="D33" s="890"/>
+      <c r="E33" s="890"/>
+      <c r="F33" s="890"/>
+      <c r="G33" s="890"/>
+      <c r="H33" s="890"/>
+      <c r="I33" s="890"/>
+      <c r="J33" s="890"/>
+      <c r="K33" s="891"/>
     </row>
     <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="721" t="s">
@@ -25592,20 +25592,20 @@
       <c r="K43" s="317"/>
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="885" t="s">
+      <c r="A44" s="889" t="s">
         <v>272</v>
       </c>
-      <c r="B44" s="841"/>
-      <c r="C44" s="841"/>
-      <c r="D44" s="841"/>
-      <c r="E44" s="842"/>
-      <c r="F44" s="841" t="s">
+      <c r="B44" s="850"/>
+      <c r="C44" s="850"/>
+      <c r="D44" s="850"/>
+      <c r="E44" s="851"/>
+      <c r="F44" s="850" t="s">
         <v>273</v>
       </c>
-      <c r="G44" s="841"/>
-      <c r="H44" s="841"/>
-      <c r="I44" s="841"/>
-      <c r="J44" s="841"/>
+      <c r="G44" s="850"/>
+      <c r="H44" s="850"/>
+      <c r="I44" s="850"/>
+      <c r="J44" s="850"/>
       <c r="K44" s="884"/>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -25860,19 +25860,19 @@
       <c r="K54" s="418"/>
     </row>
     <row r="55" spans="1:11" s="380" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="867" t="s">
+      <c r="A55" s="869" t="s">
         <v>327</v>
       </c>
-      <c r="B55" s="886"/>
-      <c r="C55" s="886"/>
-      <c r="D55" s="886"/>
-      <c r="E55" s="886"/>
-      <c r="F55" s="886"/>
-      <c r="G55" s="886"/>
-      <c r="H55" s="886"/>
-      <c r="I55" s="886"/>
-      <c r="J55" s="886"/>
-      <c r="K55" s="887"/>
+      <c r="B55" s="890"/>
+      <c r="C55" s="890"/>
+      <c r="D55" s="890"/>
+      <c r="E55" s="890"/>
+      <c r="F55" s="890"/>
+      <c r="G55" s="890"/>
+      <c r="H55" s="890"/>
+      <c r="I55" s="890"/>
+      <c r="J55" s="890"/>
+      <c r="K55" s="891"/>
     </row>
     <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="437" t="s">
@@ -26565,20 +26565,20 @@
       <c r="K81" s="317"/>
     </row>
     <row r="82" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="885" t="s">
+      <c r="A82" s="889" t="s">
         <v>272</v>
       </c>
-      <c r="B82" s="841"/>
-      <c r="C82" s="841"/>
-      <c r="D82" s="841"/>
-      <c r="E82" s="842"/>
-      <c r="F82" s="841" t="s">
+      <c r="B82" s="850"/>
+      <c r="C82" s="850"/>
+      <c r="D82" s="850"/>
+      <c r="E82" s="851"/>
+      <c r="F82" s="850" t="s">
         <v>273</v>
       </c>
-      <c r="G82" s="841"/>
-      <c r="H82" s="841"/>
-      <c r="I82" s="841"/>
-      <c r="J82" s="841"/>
+      <c r="G82" s="850"/>
+      <c r="H82" s="850"/>
+      <c r="I82" s="850"/>
+      <c r="J82" s="850"/>
       <c r="K82" s="884"/>
     </row>
     <row r="83" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -27086,6 +27086,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:K88"/>
+    <mergeCell ref="I10:K12"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="F82:K82"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A55:K55"/>
@@ -27097,13 +27104,6 @@
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="F44:K44"/>
     <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:K88"/>
-    <mergeCell ref="I10:K12"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="F82:K82"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -27243,23 +27243,23 @@
       <c r="M5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="921" t="s">
+      <c r="A6" s="907" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="922"/>
-      <c r="C6" s="922"/>
-      <c r="D6" s="922"/>
-      <c r="E6" s="922"/>
-      <c r="F6" s="922"/>
-      <c r="G6" s="923"/>
-      <c r="H6" s="835" t="s">
+      <c r="B6" s="908"/>
+      <c r="C6" s="908"/>
+      <c r="D6" s="908"/>
+      <c r="E6" s="908"/>
+      <c r="F6" s="908"/>
+      <c r="G6" s="909"/>
+      <c r="H6" s="844" t="s">
         <v>273</v>
       </c>
-      <c r="I6" s="836"/>
-      <c r="J6" s="836"/>
-      <c r="K6" s="836"/>
-      <c r="L6" s="836"/>
-      <c r="M6" s="837"/>
+      <c r="I6" s="845"/>
+      <c r="J6" s="845"/>
+      <c r="K6" s="845"/>
+      <c r="L6" s="845"/>
+      <c r="M6" s="846"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
@@ -27352,17 +27352,17 @@
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="924" t="s">
+      <c r="E11" s="910" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="924"/>
-      <c r="G11" s="924"/>
-      <c r="H11" s="924"/>
-      <c r="I11" s="924"/>
-      <c r="J11" s="924"/>
-      <c r="K11" s="924"/>
-      <c r="L11" s="924"/>
-      <c r="M11" s="925"/>
+      <c r="F11" s="910"/>
+      <c r="G11" s="910"/>
+      <c r="H11" s="910"/>
+      <c r="I11" s="910"/>
+      <c r="J11" s="910"/>
+      <c r="K11" s="910"/>
+      <c r="L11" s="910"/>
+      <c r="M11" s="911"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
@@ -27386,17 +27386,17 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="924" t="s">
+      <c r="E13" s="910" t="s">
         <v>577</v>
       </c>
-      <c r="F13" s="924"/>
-      <c r="G13" s="924"/>
-      <c r="H13" s="924"/>
-      <c r="I13" s="924"/>
-      <c r="J13" s="924"/>
-      <c r="K13" s="924"/>
-      <c r="L13" s="924"/>
-      <c r="M13" s="925"/>
+      <c r="F13" s="910"/>
+      <c r="G13" s="910"/>
+      <c r="H13" s="910"/>
+      <c r="I13" s="910"/>
+      <c r="J13" s="910"/>
+      <c r="K13" s="910"/>
+      <c r="L13" s="910"/>
+      <c r="M13" s="911"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
@@ -27420,66 +27420,66 @@
       <c r="B15" s="377"/>
       <c r="C15" s="377"/>
       <c r="D15" s="377"/>
-      <c r="E15" s="907" t="s">
+      <c r="E15" s="916" t="s">
         <v>578</v>
       </c>
-      <c r="F15" s="907"/>
-      <c r="G15" s="907"/>
-      <c r="H15" s="907"/>
-      <c r="I15" s="907"/>
-      <c r="J15" s="907"/>
-      <c r="K15" s="907"/>
-      <c r="L15" s="907"/>
-      <c r="M15" s="908"/>
+      <c r="F15" s="916"/>
+      <c r="G15" s="916"/>
+      <c r="H15" s="916"/>
+      <c r="I15" s="916"/>
+      <c r="J15" s="916"/>
+      <c r="K15" s="916"/>
+      <c r="L15" s="916"/>
+      <c r="M15" s="917"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="376"/>
       <c r="B16" s="377"/>
       <c r="C16" s="377"/>
       <c r="D16" s="377"/>
-      <c r="E16" s="907" t="s">
+      <c r="E16" s="916" t="s">
         <v>579</v>
       </c>
-      <c r="F16" s="907"/>
-      <c r="G16" s="907"/>
-      <c r="H16" s="907"/>
-      <c r="I16" s="907"/>
-      <c r="J16" s="907"/>
-      <c r="K16" s="907"/>
-      <c r="L16" s="907"/>
-      <c r="M16" s="908"/>
+      <c r="F16" s="916"/>
+      <c r="G16" s="916"/>
+      <c r="H16" s="916"/>
+      <c r="I16" s="916"/>
+      <c r="J16" s="916"/>
+      <c r="K16" s="916"/>
+      <c r="L16" s="916"/>
+      <c r="M16" s="917"/>
     </row>
     <row r="17" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="376"/>
       <c r="B17" s="377"/>
       <c r="C17" s="377"/>
       <c r="D17" s="377"/>
-      <c r="E17" s="907" t="s">
+      <c r="E17" s="916" t="s">
         <v>601</v>
       </c>
-      <c r="F17" s="907"/>
-      <c r="G17" s="907"/>
-      <c r="H17" s="907"/>
-      <c r="I17" s="907"/>
-      <c r="J17" s="907"/>
-      <c r="K17" s="907"/>
-      <c r="L17" s="907"/>
-      <c r="M17" s="908"/>
+      <c r="F17" s="916"/>
+      <c r="G17" s="916"/>
+      <c r="H17" s="916"/>
+      <c r="I17" s="916"/>
+      <c r="J17" s="916"/>
+      <c r="K17" s="916"/>
+      <c r="L17" s="916"/>
+      <c r="M17" s="917"/>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="907"/>
-      <c r="F18" s="907"/>
-      <c r="G18" s="907"/>
-      <c r="H18" s="907"/>
-      <c r="I18" s="907"/>
-      <c r="J18" s="907"/>
-      <c r="K18" s="907"/>
-      <c r="L18" s="907"/>
-      <c r="M18" s="908"/>
+      <c r="E18" s="916"/>
+      <c r="F18" s="916"/>
+      <c r="G18" s="916"/>
+      <c r="H18" s="916"/>
+      <c r="I18" s="916"/>
+      <c r="J18" s="916"/>
+      <c r="K18" s="916"/>
+      <c r="L18" s="916"/>
+      <c r="M18" s="917"/>
     </row>
     <row r="19" spans="1:13" s="648" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="376" t="s">
@@ -27488,60 +27488,60 @@
       <c r="B19" s="377"/>
       <c r="C19" s="377"/>
       <c r="D19" s="377"/>
-      <c r="E19" s="907" t="s">
+      <c r="E19" s="916" t="s">
         <v>602</v>
       </c>
-      <c r="F19" s="907"/>
-      <c r="G19" s="907"/>
-      <c r="H19" s="907"/>
-      <c r="I19" s="907"/>
-      <c r="J19" s="907"/>
-      <c r="K19" s="907"/>
-      <c r="L19" s="907"/>
-      <c r="M19" s="908"/>
+      <c r="F19" s="916"/>
+      <c r="G19" s="916"/>
+      <c r="H19" s="916"/>
+      <c r="I19" s="916"/>
+      <c r="J19" s="916"/>
+      <c r="K19" s="916"/>
+      <c r="L19" s="916"/>
+      <c r="M19" s="917"/>
     </row>
     <row r="20" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="926" t="s">
+      <c r="E20" s="920" t="s">
         <v>580</v>
       </c>
-      <c r="F20" s="926"/>
-      <c r="G20" s="926"/>
-      <c r="H20" s="926"/>
-      <c r="I20" s="926"/>
-      <c r="J20" s="926"/>
-      <c r="K20" s="926"/>
-      <c r="L20" s="926"/>
-      <c r="M20" s="927"/>
+      <c r="F20" s="920"/>
+      <c r="G20" s="920"/>
+      <c r="H20" s="920"/>
+      <c r="I20" s="920"/>
+      <c r="J20" s="920"/>
+      <c r="K20" s="920"/>
+      <c r="L20" s="920"/>
+      <c r="M20" s="921"/>
     </row>
     <row r="21" spans="1:13" ht="263.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="909" t="s">
+      <c r="E21" s="918" t="s">
         <v>603</v>
       </c>
-      <c r="F21" s="907"/>
-      <c r="G21" s="907"/>
-      <c r="H21" s="907"/>
-      <c r="I21" s="907"/>
-      <c r="J21" s="907"/>
-      <c r="K21" s="907"/>
-      <c r="L21" s="907"/>
-      <c r="M21" s="908"/>
+      <c r="F21" s="916"/>
+      <c r="G21" s="916"/>
+      <c r="H21" s="916"/>
+      <c r="I21" s="916"/>
+      <c r="J21" s="916"/>
+      <c r="K21" s="916"/>
+      <c r="L21" s="916"/>
+      <c r="M21" s="917"/>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="907"/>
-      <c r="F22" s="907"/>
-      <c r="G22" s="907"/>
+      <c r="E22" s="916"/>
+      <c r="F22" s="916"/>
+      <c r="G22" s="916"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -27645,23 +27645,23 @@
       <c r="M27" s="69"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="921" t="s">
+      <c r="A28" s="907" t="s">
         <v>272</v>
       </c>
-      <c r="B28" s="922"/>
-      <c r="C28" s="922"/>
-      <c r="D28" s="922"/>
-      <c r="E28" s="922"/>
-      <c r="F28" s="922"/>
-      <c r="G28" s="923"/>
-      <c r="H28" s="835" t="s">
+      <c r="B28" s="908"/>
+      <c r="C28" s="908"/>
+      <c r="D28" s="908"/>
+      <c r="E28" s="908"/>
+      <c r="F28" s="908"/>
+      <c r="G28" s="909"/>
+      <c r="H28" s="844" t="s">
         <v>273</v>
       </c>
-      <c r="I28" s="836"/>
-      <c r="J28" s="836"/>
-      <c r="K28" s="836"/>
-      <c r="L28" s="836"/>
-      <c r="M28" s="837"/>
+      <c r="I28" s="845"/>
+      <c r="J28" s="845"/>
+      <c r="K28" s="845"/>
+      <c r="L28" s="845"/>
+      <c r="M28" s="846"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
@@ -27739,9 +27739,9 @@
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="907"/>
-      <c r="F32" s="907"/>
-      <c r="G32" s="907"/>
+      <c r="E32" s="916"/>
+      <c r="F32" s="916"/>
+      <c r="G32" s="916"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
@@ -27756,51 +27756,51 @@
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="909" t="s">
+      <c r="E33" s="918" t="s">
         <v>619</v>
       </c>
-      <c r="F33" s="909"/>
-      <c r="G33" s="909"/>
-      <c r="H33" s="909"/>
-      <c r="I33" s="909"/>
-      <c r="J33" s="909"/>
-      <c r="K33" s="909"/>
-      <c r="L33" s="909"/>
-      <c r="M33" s="917"/>
+      <c r="F33" s="918"/>
+      <c r="G33" s="918"/>
+      <c r="H33" s="918"/>
+      <c r="I33" s="918"/>
+      <c r="J33" s="918"/>
+      <c r="K33" s="918"/>
+      <c r="L33" s="918"/>
+      <c r="M33" s="919"/>
     </row>
     <row r="34" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="376"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="909" t="s">
+      <c r="E34" s="918" t="s">
         <v>604</v>
       </c>
-      <c r="F34" s="909"/>
-      <c r="G34" s="909"/>
-      <c r="H34" s="909"/>
-      <c r="I34" s="909"/>
-      <c r="J34" s="909"/>
-      <c r="K34" s="909"/>
-      <c r="L34" s="909"/>
-      <c r="M34" s="917"/>
+      <c r="F34" s="918"/>
+      <c r="G34" s="918"/>
+      <c r="H34" s="918"/>
+      <c r="I34" s="918"/>
+      <c r="J34" s="918"/>
+      <c r="K34" s="918"/>
+      <c r="L34" s="918"/>
+      <c r="M34" s="919"/>
     </row>
     <row r="35" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="376"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="909" t="s">
+      <c r="E35" s="918" t="s">
         <v>620</v>
       </c>
-      <c r="F35" s="909"/>
-      <c r="G35" s="909"/>
-      <c r="H35" s="909"/>
-      <c r="I35" s="909"/>
-      <c r="J35" s="909"/>
-      <c r="K35" s="909"/>
-      <c r="L35" s="909"/>
-      <c r="M35" s="917"/>
+      <c r="F35" s="918"/>
+      <c r="G35" s="918"/>
+      <c r="H35" s="918"/>
+      <c r="I35" s="918"/>
+      <c r="J35" s="918"/>
+      <c r="K35" s="918"/>
+      <c r="L35" s="918"/>
+      <c r="M35" s="919"/>
     </row>
     <row r="36" spans="1:25" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="376" t="s">
@@ -27809,17 +27809,17 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="909" t="s">
+      <c r="E36" s="918" t="s">
         <v>625</v>
       </c>
-      <c r="F36" s="909"/>
-      <c r="G36" s="909"/>
-      <c r="H36" s="909"/>
-      <c r="I36" s="909"/>
-      <c r="J36" s="909"/>
-      <c r="K36" s="909"/>
-      <c r="L36" s="909"/>
-      <c r="M36" s="917"/>
+      <c r="F36" s="918"/>
+      <c r="G36" s="918"/>
+      <c r="H36" s="918"/>
+      <c r="I36" s="918"/>
+      <c r="J36" s="918"/>
+      <c r="K36" s="918"/>
+      <c r="L36" s="918"/>
+      <c r="M36" s="919"/>
     </row>
     <row r="37" spans="1:25" s="651" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="649" t="s">
@@ -27828,17 +27828,17 @@
       <c r="B37" s="650"/>
       <c r="C37" s="650"/>
       <c r="D37" s="650"/>
-      <c r="E37" s="918" t="s">
+      <c r="E37" s="914" t="s">
         <v>605</v>
       </c>
-      <c r="F37" s="918"/>
-      <c r="G37" s="918"/>
-      <c r="H37" s="918"/>
-      <c r="I37" s="918"/>
-      <c r="J37" s="918"/>
-      <c r="K37" s="918"/>
-      <c r="L37" s="918"/>
-      <c r="M37" s="919"/>
+      <c r="F37" s="914"/>
+      <c r="G37" s="914"/>
+      <c r="H37" s="914"/>
+      <c r="I37" s="914"/>
+      <c r="J37" s="914"/>
+      <c r="K37" s="914"/>
+      <c r="L37" s="914"/>
+      <c r="M37" s="915"/>
     </row>
     <row r="38" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="376" t="s">
@@ -27847,25 +27847,25 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="910" t="s">
+      <c r="E38" s="925" t="s">
         <v>622</v>
       </c>
-      <c r="F38" s="910"/>
-      <c r="G38" s="910"/>
-      <c r="H38" s="910"/>
-      <c r="I38" s="910"/>
-      <c r="J38" s="910"/>
-      <c r="K38" s="910"/>
-      <c r="L38" s="910"/>
-      <c r="M38" s="911"/>
-      <c r="R38" s="910"/>
-      <c r="S38" s="910"/>
-      <c r="T38" s="910"/>
-      <c r="U38" s="910"/>
-      <c r="V38" s="910"/>
-      <c r="W38" s="910"/>
-      <c r="X38" s="910"/>
-      <c r="Y38" s="911"/>
+      <c r="F38" s="925"/>
+      <c r="G38" s="925"/>
+      <c r="H38" s="925"/>
+      <c r="I38" s="925"/>
+      <c r="J38" s="925"/>
+      <c r="K38" s="925"/>
+      <c r="L38" s="925"/>
+      <c r="M38" s="926"/>
+      <c r="R38" s="925"/>
+      <c r="S38" s="925"/>
+      <c r="T38" s="925"/>
+      <c r="U38" s="925"/>
+      <c r="V38" s="925"/>
+      <c r="W38" s="925"/>
+      <c r="X38" s="925"/>
+      <c r="Y38" s="926"/>
     </row>
     <row r="39" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="376"/>
@@ -27889,17 +27889,17 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="918" t="s">
+      <c r="E40" s="914" t="s">
         <v>623</v>
       </c>
-      <c r="F40" s="918"/>
-      <c r="G40" s="918"/>
-      <c r="H40" s="918"/>
-      <c r="I40" s="918"/>
-      <c r="J40" s="918"/>
-      <c r="K40" s="918"/>
-      <c r="L40" s="918"/>
-      <c r="M40" s="919"/>
+      <c r="F40" s="914"/>
+      <c r="G40" s="914"/>
+      <c r="H40" s="914"/>
+      <c r="I40" s="914"/>
+      <c r="J40" s="914"/>
+      <c r="K40" s="914"/>
+      <c r="L40" s="914"/>
+      <c r="M40" s="915"/>
     </row>
     <row r="41" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="376"/>
@@ -27976,7 +27976,7 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="920" t="s">
+      <c r="E45" s="927" t="s">
         <v>586</v>
       </c>
       <c r="F45" s="912"/>
@@ -27993,7 +27993,7 @@
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="920" t="s">
+      <c r="E46" s="927" t="s">
         <v>587</v>
       </c>
       <c r="F46" s="912"/>
@@ -28097,51 +28097,51 @@
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="914" t="s">
+      <c r="E52" s="922" t="s">
         <v>581</v>
       </c>
-      <c r="F52" s="915"/>
-      <c r="G52" s="915"/>
-      <c r="H52" s="915"/>
-      <c r="I52" s="915"/>
-      <c r="J52" s="915"/>
-      <c r="K52" s="915"/>
-      <c r="L52" s="915"/>
-      <c r="M52" s="916"/>
+      <c r="F52" s="923"/>
+      <c r="G52" s="923"/>
+      <c r="H52" s="923"/>
+      <c r="I52" s="923"/>
+      <c r="J52" s="923"/>
+      <c r="K52" s="923"/>
+      <c r="L52" s="923"/>
+      <c r="M52" s="924"/>
     </row>
     <row r="53" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="618"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="914" t="s">
+      <c r="E53" s="922" t="s">
         <v>582</v>
       </c>
-      <c r="F53" s="915"/>
-      <c r="G53" s="915"/>
-      <c r="H53" s="915"/>
-      <c r="I53" s="915"/>
-      <c r="J53" s="915"/>
-      <c r="K53" s="915"/>
-      <c r="L53" s="915"/>
-      <c r="M53" s="916"/>
+      <c r="F53" s="923"/>
+      <c r="G53" s="923"/>
+      <c r="H53" s="923"/>
+      <c r="I53" s="923"/>
+      <c r="J53" s="923"/>
+      <c r="K53" s="923"/>
+      <c r="L53" s="923"/>
+      <c r="M53" s="924"/>
     </row>
     <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="618"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="914" t="s">
+      <c r="E54" s="922" t="s">
         <v>583</v>
       </c>
-      <c r="F54" s="915"/>
-      <c r="G54" s="915"/>
-      <c r="H54" s="915"/>
-      <c r="I54" s="915"/>
-      <c r="J54" s="915"/>
-      <c r="K54" s="915"/>
-      <c r="L54" s="915"/>
-      <c r="M54" s="916"/>
+      <c r="F54" s="923"/>
+      <c r="G54" s="923"/>
+      <c r="H54" s="923"/>
+      <c r="I54" s="923"/>
+      <c r="J54" s="923"/>
+      <c r="K54" s="923"/>
+      <c r="L54" s="923"/>
+      <c r="M54" s="924"/>
     </row>
     <row r="55" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
@@ -28223,6 +28223,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="R38:Y38"/>
+    <mergeCell ref="E39:M39"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="E54:M54"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E34:M34"/>
+    <mergeCell ref="E38:M38"/>
+    <mergeCell ref="E53:M53"/>
+    <mergeCell ref="E52:M52"/>
+    <mergeCell ref="E40:M40"/>
+    <mergeCell ref="E46:M46"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="E45:M45"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="E13:M13"/>
@@ -28239,23 +28256,6 @@
     <mergeCell ref="E35:M35"/>
     <mergeCell ref="E20:M20"/>
     <mergeCell ref="E16:M16"/>
-    <mergeCell ref="E39:M39"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="E54:M54"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E34:M34"/>
-    <mergeCell ref="E38:M38"/>
-    <mergeCell ref="E53:M53"/>
-    <mergeCell ref="E52:M52"/>
-    <mergeCell ref="E40:M40"/>
-    <mergeCell ref="E46:M46"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="E45:M45"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="R38:Y38"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -28387,22 +28387,22 @@
       <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="933" t="s">
+      <c r="A6" s="930" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="934"/>
-      <c r="C6" s="934"/>
-      <c r="D6" s="935"/>
-      <c r="E6" s="835" t="s">
+      <c r="B6" s="931"/>
+      <c r="C6" s="931"/>
+      <c r="D6" s="932"/>
+      <c r="E6" s="844" t="s">
         <v>273</v>
       </c>
-      <c r="F6" s="836"/>
-      <c r="G6" s="836"/>
-      <c r="H6" s="836"/>
-      <c r="I6" s="836"/>
-      <c r="J6" s="836"/>
-      <c r="K6" s="836"/>
-      <c r="L6" s="837"/>
+      <c r="F6" s="845"/>
+      <c r="G6" s="845"/>
+      <c r="H6" s="845"/>
+      <c r="I6" s="845"/>
+      <c r="J6" s="845"/>
+      <c r="K6" s="845"/>
+      <c r="L6" s="846"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
@@ -28469,26 +28469,26 @@
       <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="940" t="s">
+      <c r="A10" s="937" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="936"/>
-      <c r="C10" s="937"/>
+      <c r="B10" s="933"/>
+      <c r="C10" s="934"/>
       <c r="D10" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="936" t="s">
+      <c r="E10" s="933" t="s">
         <v>315</v>
       </c>
-      <c r="F10" s="937"/>
-      <c r="G10" s="938" t="s">
+      <c r="F10" s="934"/>
+      <c r="G10" s="935" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="936"/>
-      <c r="I10" s="936"/>
-      <c r="J10" s="936"/>
-      <c r="K10" s="936"/>
-      <c r="L10" s="939"/>
+      <c r="H10" s="933"/>
+      <c r="I10" s="933"/>
+      <c r="J10" s="933"/>
+      <c r="K10" s="933"/>
+      <c r="L10" s="936"/>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="668" t="s">
@@ -28517,8 +28517,8 @@
       <c r="D12" s="622" t="s">
         <v>424</v>
       </c>
-      <c r="E12" s="941"/>
-      <c r="F12" s="942"/>
+      <c r="E12" s="938"/>
+      <c r="F12" s="939"/>
       <c r="G12" s="655"/>
       <c r="H12" s="657"/>
       <c r="I12" s="657"/>
@@ -28737,14 +28737,14 @@
         <v>452</v>
       </c>
       <c r="F23" s="386"/>
-      <c r="G23" s="930" t="s">
+      <c r="G23" s="940" t="s">
         <v>453</v>
       </c>
-      <c r="H23" s="931"/>
-      <c r="I23" s="931"/>
-      <c r="J23" s="931"/>
-      <c r="K23" s="931"/>
-      <c r="L23" s="932"/>
+      <c r="H23" s="941"/>
+      <c r="I23" s="941"/>
+      <c r="J23" s="941"/>
+      <c r="K23" s="941"/>
+      <c r="L23" s="942"/>
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="672" t="s">
@@ -28795,12 +28795,12 @@
         <v>458</v>
       </c>
       <c r="F26" s="656"/>
-      <c r="G26" s="930"/>
-      <c r="H26" s="931"/>
-      <c r="I26" s="931"/>
-      <c r="J26" s="931"/>
-      <c r="K26" s="931"/>
-      <c r="L26" s="932"/>
+      <c r="G26" s="940"/>
+      <c r="H26" s="941"/>
+      <c r="I26" s="941"/>
+      <c r="J26" s="941"/>
+      <c r="K26" s="941"/>
+      <c r="L26" s="942"/>
     </row>
     <row r="27" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="673" t="s">
@@ -28852,6 +28852,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="G23:L23"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="E6:L6"/>
     <mergeCell ref="A6:D6"/>
@@ -28860,14 +28868,6 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="G23:L23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -28990,21 +28990,21 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="943" t="s">
+      <c r="A6" s="968" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="944"/>
-      <c r="C6" s="944"/>
-      <c r="D6" s="944"/>
-      <c r="E6" s="945"/>
-      <c r="F6" s="835" t="s">
+      <c r="B6" s="969"/>
+      <c r="C6" s="969"/>
+      <c r="D6" s="969"/>
+      <c r="E6" s="970"/>
+      <c r="F6" s="844" t="s">
         <v>273</v>
       </c>
-      <c r="G6" s="836"/>
-      <c r="H6" s="836"/>
-      <c r="I6" s="836"/>
-      <c r="J6" s="836"/>
-      <c r="K6" s="837"/>
+      <c r="G6" s="845"/>
+      <c r="H6" s="845"/>
+      <c r="I6" s="845"/>
+      <c r="J6" s="845"/>
+      <c r="K6" s="846"/>
       <c r="L6" s="208"/>
       <c r="M6" s="9"/>
     </row>
@@ -29075,43 +29075,43 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="949" t="s">
+      <c r="A10" s="974" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="948"/>
-      <c r="C10" s="946" t="s">
+      <c r="B10" s="973"/>
+      <c r="C10" s="971" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="947"/>
-      <c r="E10" s="948"/>
-      <c r="F10" s="946" t="s">
+      <c r="D10" s="972"/>
+      <c r="E10" s="973"/>
+      <c r="F10" s="971" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="947"/>
-      <c r="H10" s="948"/>
-      <c r="I10" s="946" t="s">
+      <c r="G10" s="972"/>
+      <c r="H10" s="973"/>
+      <c r="I10" s="971" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="948"/>
+      <c r="J10" s="973"/>
       <c r="K10" s="624" t="s">
         <v>316</v>
       </c>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="950" t="s">
+      <c r="A11" s="956" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="951"/>
-      <c r="C11" s="951"/>
-      <c r="D11" s="951"/>
-      <c r="E11" s="951"/>
-      <c r="F11" s="951"/>
-      <c r="G11" s="951"/>
-      <c r="H11" s="951"/>
-      <c r="I11" s="951"/>
-      <c r="J11" s="951"/>
-      <c r="K11" s="952"/>
+      <c r="B11" s="957"/>
+      <c r="C11" s="957"/>
+      <c r="D11" s="957"/>
+      <c r="E11" s="957"/>
+      <c r="F11" s="957"/>
+      <c r="G11" s="957"/>
+      <c r="H11" s="957"/>
+      <c r="I11" s="957"/>
+      <c r="J11" s="957"/>
+      <c r="K11" s="958"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -29119,56 +29119,56 @@
         <v>461</v>
       </c>
       <c r="B12" s="675"/>
-      <c r="C12" s="953" t="s">
+      <c r="C12" s="959" t="s">
         <v>462</v>
       </c>
-      <c r="D12" s="954"/>
-      <c r="E12" s="955"/>
-      <c r="F12" s="962" t="s">
+      <c r="D12" s="960"/>
+      <c r="E12" s="961"/>
+      <c r="F12" s="965" t="s">
         <v>463</v>
       </c>
-      <c r="G12" s="963"/>
-      <c r="H12" s="964"/>
-      <c r="I12" s="953" t="s">
+      <c r="G12" s="966"/>
+      <c r="H12" s="967"/>
+      <c r="I12" s="959" t="s">
         <v>464</v>
       </c>
-      <c r="J12" s="955"/>
+      <c r="J12" s="961"/>
       <c r="K12" s="676"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="950" t="s">
+      <c r="A13" s="956" t="s">
         <v>327</v>
       </c>
-      <c r="B13" s="951"/>
-      <c r="C13" s="951"/>
-      <c r="D13" s="951"/>
-      <c r="E13" s="951"/>
-      <c r="F13" s="951"/>
-      <c r="G13" s="951"/>
-      <c r="H13" s="951"/>
-      <c r="I13" s="951"/>
-      <c r="J13" s="951"/>
-      <c r="K13" s="952"/>
+      <c r="B13" s="957"/>
+      <c r="C13" s="957"/>
+      <c r="D13" s="957"/>
+      <c r="E13" s="957"/>
+      <c r="F13" s="957"/>
+      <c r="G13" s="957"/>
+      <c r="H13" s="957"/>
+      <c r="I13" s="957"/>
+      <c r="J13" s="957"/>
+      <c r="K13" s="958"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="625" t="s">
         <v>465</v>
       </c>
       <c r="B14" s="374"/>
-      <c r="C14" s="959" t="s">
+      <c r="C14" s="962" t="s">
         <v>466</v>
       </c>
-      <c r="D14" s="960"/>
-      <c r="E14" s="961"/>
-      <c r="F14" s="971" t="s">
+      <c r="D14" s="963"/>
+      <c r="E14" s="964"/>
+      <c r="F14" s="951" t="s">
         <v>467</v>
       </c>
-      <c r="G14" s="972"/>
-      <c r="H14" s="973"/>
-      <c r="I14" s="959" t="s">
+      <c r="G14" s="952"/>
+      <c r="H14" s="953"/>
+      <c r="I14" s="962" t="s">
         <v>468</v>
       </c>
-      <c r="J14" s="961"/>
+      <c r="J14" s="964"/>
       <c r="K14" s="677"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -29176,20 +29176,20 @@
         <v>469</v>
       </c>
       <c r="B15" s="678"/>
-      <c r="C15" s="956" t="s">
+      <c r="C15" s="946" t="s">
         <v>466</v>
       </c>
-      <c r="D15" s="957"/>
-      <c r="E15" s="958"/>
-      <c r="F15" s="968" t="s">
+      <c r="D15" s="955"/>
+      <c r="E15" s="947"/>
+      <c r="F15" s="948" t="s">
         <v>467</v>
       </c>
-      <c r="G15" s="969"/>
-      <c r="H15" s="970"/>
-      <c r="I15" s="956" t="s">
+      <c r="G15" s="949"/>
+      <c r="H15" s="950"/>
+      <c r="I15" s="946" t="s">
         <v>468</v>
       </c>
-      <c r="J15" s="958"/>
+      <c r="J15" s="947"/>
       <c r="K15" s="679"/>
       <c r="L15" s="14"/>
     </row>
@@ -29198,20 +29198,20 @@
         <v>361</v>
       </c>
       <c r="B16" s="678"/>
-      <c r="C16" s="956" t="s">
+      <c r="C16" s="946" t="s">
         <v>466</v>
       </c>
-      <c r="D16" s="957"/>
-      <c r="E16" s="958"/>
-      <c r="F16" s="968" t="s">
+      <c r="D16" s="955"/>
+      <c r="E16" s="947"/>
+      <c r="F16" s="948" t="s">
         <v>467</v>
       </c>
-      <c r="G16" s="969"/>
-      <c r="H16" s="970"/>
-      <c r="I16" s="956" t="s">
+      <c r="G16" s="949"/>
+      <c r="H16" s="950"/>
+      <c r="I16" s="946" t="s">
         <v>468</v>
       </c>
-      <c r="J16" s="958"/>
+      <c r="J16" s="947"/>
       <c r="K16" s="679"/>
       <c r="L16" s="14"/>
     </row>
@@ -29220,20 +29220,20 @@
         <v>470</v>
       </c>
       <c r="B17" s="678"/>
-      <c r="C17" s="956" t="s">
+      <c r="C17" s="946" t="s">
         <v>471</v>
       </c>
-      <c r="D17" s="957"/>
-      <c r="E17" s="958"/>
-      <c r="F17" s="968" t="s">
+      <c r="D17" s="955"/>
+      <c r="E17" s="947"/>
+      <c r="F17" s="948" t="s">
         <v>472</v>
       </c>
-      <c r="G17" s="969"/>
-      <c r="H17" s="970"/>
-      <c r="I17" s="956" t="s">
+      <c r="G17" s="949"/>
+      <c r="H17" s="950"/>
+      <c r="I17" s="946" t="s">
         <v>613</v>
       </c>
-      <c r="J17" s="958"/>
+      <c r="J17" s="947"/>
       <c r="K17" s="679"/>
     </row>
     <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -29241,52 +29241,52 @@
         <v>339</v>
       </c>
       <c r="B18" s="680"/>
-      <c r="C18" s="956" t="s">
+      <c r="C18" s="946" t="s">
         <v>471</v>
       </c>
-      <c r="D18" s="957"/>
-      <c r="E18" s="958"/>
-      <c r="F18" s="956" t="s">
+      <c r="D18" s="955"/>
+      <c r="E18" s="947"/>
+      <c r="F18" s="946" t="s">
         <v>474</v>
       </c>
-      <c r="G18" s="957"/>
-      <c r="H18" s="958"/>
-      <c r="I18" s="956" t="s">
+      <c r="G18" s="955"/>
+      <c r="H18" s="947"/>
+      <c r="I18" s="946" t="s">
         <v>614</v>
       </c>
-      <c r="J18" s="958"/>
+      <c r="J18" s="947"/>
       <c r="K18" s="679"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="950" t="s">
+      <c r="A19" s="956" t="s">
         <v>387</v>
       </c>
-      <c r="B19" s="951"/>
-      <c r="C19" s="951"/>
-      <c r="D19" s="951"/>
-      <c r="E19" s="951"/>
-      <c r="F19" s="951"/>
-      <c r="G19" s="951"/>
-      <c r="H19" s="951"/>
-      <c r="I19" s="951"/>
-      <c r="J19" s="951"/>
-      <c r="K19" s="952"/>
+      <c r="B19" s="957"/>
+      <c r="C19" s="957"/>
+      <c r="D19" s="957"/>
+      <c r="E19" s="957"/>
+      <c r="F19" s="957"/>
+      <c r="G19" s="957"/>
+      <c r="H19" s="957"/>
+      <c r="I19" s="957"/>
+      <c r="J19" s="957"/>
+      <c r="K19" s="958"/>
     </row>
     <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="623" t="s">
         <v>475</v>
       </c>
       <c r="B20" s="681"/>
-      <c r="C20" s="956" t="s">
+      <c r="C20" s="946" t="s">
         <v>466</v>
       </c>
-      <c r="D20" s="957"/>
-      <c r="E20" s="958"/>
-      <c r="F20" s="968" t="s">
+      <c r="D20" s="955"/>
+      <c r="E20" s="947"/>
+      <c r="F20" s="948" t="s">
         <v>467</v>
       </c>
-      <c r="G20" s="969"/>
-      <c r="H20" s="970"/>
+      <c r="G20" s="949"/>
+      <c r="H20" s="950"/>
       <c r="I20" s="682" t="s">
         <v>464</v>
       </c>
@@ -29298,20 +29298,20 @@
         <v>476</v>
       </c>
       <c r="B21" s="685"/>
-      <c r="C21" s="965" t="s">
+      <c r="C21" s="943" t="s">
         <v>471</v>
       </c>
-      <c r="D21" s="966"/>
-      <c r="E21" s="967"/>
+      <c r="D21" s="944"/>
+      <c r="E21" s="945"/>
       <c r="F21" s="686" t="s">
         <v>467</v>
       </c>
       <c r="G21" s="687"/>
       <c r="H21" s="688"/>
-      <c r="I21" s="965" t="s">
+      <c r="I21" s="943" t="s">
         <v>473</v>
       </c>
-      <c r="J21" s="974"/>
+      <c r="J21" s="954"/>
       <c r="K21" s="712"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -29511,6 +29511,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="F20:H20"/>
@@ -29527,21 +29542,6 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
